--- a/test/xl_transform/writer_test/test_data/ExcelDataFrameWriter/WriteWithFormat/Result.xlsx
+++ b/test/xl_transform/writer_test/test_data/ExcelDataFrameWriter/WriteWithFormat/Result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -44,35 +44,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.33</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -101,14 +100,14 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -124,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,6 +198,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +250,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,17 +446,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -463,9 +496,9 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>-10</v>
@@ -483,9 +516,9 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
